--- a/Data/Mapping_PPI_69grouping.xlsx
+++ b/Data/Mapping_PPI_69grouping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MasterThesis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0873B2D-1C3A-4FC6-A20D-DB6D6BEC4DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6A2D57-B8FE-4A29-A212-80C63FA9439C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-435" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="87">
   <si>
     <t>Total</t>
   </si>
@@ -262,9 +262,6 @@
   </si>
   <si>
     <t>CDE Manufacture of chemicals and oil refineries etc.</t>
-  </si>
-  <si>
-    <t>CE Manufacture of chemicals</t>
   </si>
   <si>
     <t>CF Pharmaceuticals</t>
@@ -617,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +732,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
@@ -743,7 +740,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -759,7 +756,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -767,7 +764,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -775,7 +772,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -783,7 +780,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -791,7 +788,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -799,7 +796,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -823,7 +820,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -831,7 +828,7 @@
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -839,7 +836,7 @@
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
